--- a/23InstructiosRISC32I.xlsx
+++ b/23InstructiosRISC32I.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GHOST\OneDrive\Escritorio\Th25-J.B_F.C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967E1D2F-95F3-471C-A6C0-9E1A44B2D3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2A2176-69D0-4AFC-ACF0-D18E65811FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6428B508-3E23-4047-A819-2BA6D5444C44}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$A$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
   <si>
     <t>op</t>
   </si>
@@ -177,13 +180,19 @@
   </si>
   <si>
     <t>Hay que agregar operación = y resolver decoder</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,16 +231,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -402,21 +473,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -431,6 +487,43 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -440,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -449,18 +542,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -469,43 +551,134 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -516,12 +689,14 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -534,12 +709,14 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -552,12 +729,14 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -570,12 +749,14 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -588,12 +769,14 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -606,12 +789,14 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -622,13 +807,15 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -641,21 +828,27 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -718,7 +911,9 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Estilo de tabla 1" pivot="0" count="0" xr9:uid="{8F5EED40-1378-4322-A0AE-7F197AC9D596}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -731,17 +926,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F6D51CA-DF14-404F-8A58-1F0198635215}" name="Tabla2" displayName="Tabla2" ref="B2:J25" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F6D51CA-DF14-404F-8A58-1F0198635215}" name="Tabla2" displayName="Tabla2" ref="B1:J24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D7463A58-C3CA-4F6C-8A47-A36A875CCCA8}" name="op" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{0020EC18-F5DC-4D72-A1F5-E653E54B0736}" name="Instruct." dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{3477EF9C-022A-43B0-85EF-0FA6BA6E3B65}" name="RegWrite" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{DA634149-6F69-4E9E-93B6-4CB737EBE3E2}" name="ImmSrc" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{9EBFEFE6-D2E4-4FD8-8552-3636AC7F8CEF}" name="ALUSrc" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{554D0BA3-C7EC-4080-BCD7-D3422A8B3D8D}" name="MemWrite" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{69A643AB-7CAD-461D-927A-0FAACED14321}" name="ResultSrc" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{413871B3-354B-40CC-9AC4-04478F0D39FD}" name="Branch" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{351A7E4D-1729-4921-B433-7A5D7F03448D}" name="ALUOp" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D7463A58-C3CA-4F6C-8A47-A36A875CCCA8}" name="op" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{0020EC18-F5DC-4D72-A1F5-E653E54B0736}" name="Instruct." dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{3477EF9C-022A-43B0-85EF-0FA6BA6E3B65}" name="RegWrite" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{DA634149-6F69-4E9E-93B6-4CB737EBE3E2}" name="ImmSrc" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{9EBFEFE6-D2E4-4FD8-8552-3636AC7F8CEF}" name="ALUSrc" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{554D0BA3-C7EC-4080-BCD7-D3422A8B3D8D}" name="MemWrite" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{69A643AB-7CAD-461D-927A-0FAACED14321}" name="ResultSrc" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{413871B3-354B-40CC-9AC4-04478F0D39FD}" name="Branch" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{351A7E4D-1729-4921-B433-7A5D7F03448D}" name="ALUOp" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1064,514 +1259,637 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B9BDEC-3A90-49D4-8C92-EDF500EE6715}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="11.5703125" style="10" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="10"/>
-    <col min="7" max="7" width="12.5703125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="10" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="10"/>
+    <col min="4" max="4" width="11.5703125" style="5" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="5"/>
+    <col min="7" max="7" width="12.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="5" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="10">
+        <v>51</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="7"/>
+    </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="10">
+        <v>51</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="10">
+        <v>51</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="10">
+        <v>51</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="10">
+        <v>51</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="10">
+        <v>51</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="10">
+        <v>51</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="10">
+        <v>51</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B10" s="15">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F10" s="18">
         <v>1</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G10" s="18">
         <v>0</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H10" s="18">
         <v>0</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I10" s="18">
         <v>0</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="21"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="20">
+        <v>3</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="22">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="20">
+        <v>19</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="20">
+        <v>19</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="20">
+        <v>103</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="20">
+        <v>19</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="20">
+        <v>19</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="20">
+        <v>19</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="20">
+        <v>19</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="26">
+        <v>99</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="26">
+        <v>99</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="26">
+        <v>99</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="L21" s="47"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="35">
+        <v>35</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="41">
+        <v>111</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B24" s="10">
         <v>55</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="8">
-        <v>35</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="8">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="8">
-        <v>51</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="8">
-        <v>99</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
-        <v>111</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
-        <v>51</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
-        <v>103</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
-        <v>51</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
-        <v>19</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
-        <v>51</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
-        <v>51</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
-        <v>51</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
-        <v>99</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
-        <v>19</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
-        <v>51</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
-        <v>19</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
-        <v>51</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="9">
-        <v>99</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E3 E5 D6:J25 F5:J5 J3" numberStoredAsText="1"/>
+    <ignoredError sqref="D2:J2 D19:J19 D12 G12:J12 D13:D18 G13:J18 E12:E18 D10:E11 D8:D9 D22:J24 D20:D21 F20:J21 E20:E21 G10:J11 F10:F11 F12 F8:F9 F13:F18 G8:J9 G7:I7 G5:I5 G6:J6 F3:F7 G4:J4 D4:D7 D3:E3 E5:E7 E4 G3:J3 J5 J7" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/23InstructiosRISC32I.xlsx
+++ b/23InstructiosRISC32I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GHOST\OneDrive\Escritorio\Th25-J.B_F.C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2A2176-69D0-4AFC-ACF0-D18E65811FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358ABEB3-4BBB-46D5-8117-5F04529F51FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6428B508-3E23-4047-A819-2BA6D5444C44}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="52">
   <si>
     <t>op</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Hay que agregar shift circuit , pos ALU</t>
+  </si>
+  <si>
+    <t>Agregar XOR a la ALU</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -246,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +310,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6405"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF11AA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -533,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -597,9 +630,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -622,9 +652,6 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,9 +665,6 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,10 +678,6 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,6 +685,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,9 +704,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -873,6 +902,9 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -914,6 +946,12 @@
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de tabla 1" pivot="0" count="0" xr9:uid="{8F5EED40-1378-4322-A0AE-7F197AC9D596}"/>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF11AA"/>
+      <color rgb="FFFF6405"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -926,17 +964,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F6D51CA-DF14-404F-8A58-1F0198635215}" name="Tabla2" displayName="Tabla2" ref="B1:J24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F6D51CA-DF14-404F-8A58-1F0198635215}" name="Tabla2" displayName="Tabla2" ref="B1:J24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D7463A58-C3CA-4F6C-8A47-A36A875CCCA8}" name="op" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{0020EC18-F5DC-4D72-A1F5-E653E54B0736}" name="Instruct." dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{3477EF9C-022A-43B0-85EF-0FA6BA6E3B65}" name="RegWrite" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{DA634149-6F69-4E9E-93B6-4CB737EBE3E2}" name="ImmSrc" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{9EBFEFE6-D2E4-4FD8-8552-3636AC7F8CEF}" name="ALUSrc" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{554D0BA3-C7EC-4080-BCD7-D3422A8B3D8D}" name="MemWrite" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{69A643AB-7CAD-461D-927A-0FAACED14321}" name="ResultSrc" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{413871B3-354B-40CC-9AC4-04478F0D39FD}" name="Branch" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{351A7E4D-1729-4921-B433-7A5D7F03448D}" name="ALUOp" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D7463A58-C3CA-4F6C-8A47-A36A875CCCA8}" name="op" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0020EC18-F5DC-4D72-A1F5-E653E54B0736}" name="Instruct." dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3477EF9C-022A-43B0-85EF-0FA6BA6E3B65}" name="RegWrite" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{DA634149-6F69-4E9E-93B6-4CB737EBE3E2}" name="ImmSrc" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{9EBFEFE6-D2E4-4FD8-8552-3636AC7F8CEF}" name="ALUSrc" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{554D0BA3-C7EC-4080-BCD7-D3422A8B3D8D}" name="MemWrite" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{69A643AB-7CAD-461D-927A-0FAACED14321}" name="ResultSrc" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{413871B3-354B-40CC-9AC4-04478F0D39FD}" name="Branch" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{351A7E4D-1729-4921-B433-7A5D7F03448D}" name="ALUOp" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1262,7 +1300,8 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1349,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="44" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="10">
@@ -1332,7 +1371,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>34</v>
@@ -1343,7 +1382,7 @@
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="43" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="10">
@@ -1365,7 +1404,7 @@
         <v>34</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>34</v>
@@ -1375,7 +1414,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="43" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="10">
@@ -1384,20 +1423,33 @@
       <c r="C4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="E4" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
+      <c r="G4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="43" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="10">
@@ -1406,22 +1458,30 @@
       <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="E5" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="J5" s="14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="43" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="10">
@@ -1430,20 +1490,30 @@
       <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="E6" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
+      <c r="G6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="43" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="10">
@@ -1452,22 +1522,30 @@
       <c r="C7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="E7" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="J7" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="43" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="10">
@@ -1476,20 +1554,30 @@
       <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="E8" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
+      <c r="G8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="43" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="10">
@@ -1498,20 +1586,33 @@
       <c r="C9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="E9" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
+      <c r="G9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="45" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="15">
@@ -1532,8 +1633,8 @@
       <c r="G10" s="18">
         <v>0</v>
       </c>
-      <c r="H10" s="18">
-        <v>0</v>
+      <c r="H10" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="I10" s="18">
         <v>0</v>
@@ -1543,7 +1644,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="45" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="20">
@@ -1552,8 +1653,8 @@
       <c r="C11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="22">
-        <v>1</v>
+      <c r="D11" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>32</v>
@@ -1565,7 +1666,7 @@
         <v>34</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>34</v>
@@ -1575,7 +1676,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="45" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="20">
@@ -1597,7 +1698,7 @@
         <v>34</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>34</v>
@@ -1610,7 +1711,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="45" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="20">
@@ -1619,20 +1720,30 @@
       <c r="C13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
       <c r="E13" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
+      <c r="G13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="45" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="20">
@@ -1641,20 +1752,30 @@
       <c r="C14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="E14" s="23" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="G14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="45" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="20">
@@ -1663,20 +1784,30 @@
       <c r="C15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="E15" s="23" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
+      <c r="G15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="45" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="20">
@@ -1685,20 +1816,30 @@
       <c r="C16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
       <c r="E16" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="G16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="20">
@@ -1707,20 +1848,30 @@
       <c r="C17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="22">
+        <v>1</v>
+      </c>
       <c r="E17" s="23" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+      <c r="G17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="20">
@@ -1729,145 +1880,192 @@
       <c r="C18" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="E18" s="23" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="G18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>99</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="29" t="s">
+      <c r="D19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="30" t="s">
+      <c r="F19" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="29" t="s">
         <v>40</v>
       </c>
       <c r="K19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>99</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29" t="s">
+      <c r="D20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="F20" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>99</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="29" t="s">
+      <c r="D21" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
-      <c r="L21" s="47"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="F21" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="33">
         <v>35</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="38" t="s">
+      <c r="D22" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="38" t="s">
+      <c r="F22" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="I22" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="38">
         <v>111</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D23" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
         <v>36</v>
       </c>
@@ -1877,19 +2075,33 @@
       <c r="C24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
+      <c r="D24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D2:J2 D19:J19 D12 G12:J12 D13:D18 G13:J18 E12:E18 D10:E11 D8:D9 D22:J24 D20:D21 F20:J21 E20:E21 G10:J11 F10:F11 F12 F8:F9 F13:F18 G8:J9 G7:I7 G5:I5 G6:J6 F3:F7 G4:J4 D4:D7 D3:E3 E5:E7 E4 G3:J3 J5 J7" numberStoredAsText="1"/>
+    <ignoredError sqref="D2:G2 F3 D3:E3 G3 I2:J2 I3:J3 I19:J19 H22:J22 D22:F22 G19 I12:J12 I11:J11 I10:J10 G10 E11 J7 E4 E5:E7 F4:F7 F13:F18 F8:F9 F12 F10:F11 G11 E20:E21 D10:E10 E12:E18 G12 D12 D19:E19 D4 D23:J23 F19 D13:D18 H12 G13:J18 D11 H10 D20:D21 F20:J21 H11 D8:E9 G8:J9 G4:J6 D5:D7 G7:I7 H19 G22 H2:H3 D24:J24" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/23InstructiosRISC32I.xlsx
+++ b/23InstructiosRISC32I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GHOST\OneDrive\Escritorio\Th25-J.B_F.C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358ABEB3-4BBB-46D5-8117-5F04529F51FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F36092-4D89-44D9-A986-2283E1732FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6428B508-3E23-4047-A819-2BA6D5444C44}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="59">
   <si>
     <t>op</t>
   </si>
@@ -195,13 +195,34 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>110011</t>
+  </si>
+  <si>
+    <t>010011</t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>100111</t>
+  </si>
+  <si>
+    <t>100011</t>
+  </si>
+  <si>
+    <t>101111</t>
+  </si>
+  <si>
+    <t>000111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +271,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -335,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -470,43 +504,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -566,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -575,9 +581,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,10 +594,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,10 +604,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -617,10 +614,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,10 +624,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,10 +643,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,10 +653,7 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -677,26 +662,35 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -704,6 +698,39 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -827,46 +854,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -966,15 +953,15 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F6D51CA-DF14-404F-8A58-1F0198635215}" name="Tabla2" displayName="Tabla2" ref="B1:J24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D7463A58-C3CA-4F6C-8A47-A36A875CCCA8}" name="op" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{0020EC18-F5DC-4D72-A1F5-E653E54B0736}" name="Instruct." dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{3477EF9C-022A-43B0-85EF-0FA6BA6E3B65}" name="RegWrite" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{DA634149-6F69-4E9E-93B6-4CB737EBE3E2}" name="ImmSrc" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{9EBFEFE6-D2E4-4FD8-8552-3636AC7F8CEF}" name="ALUSrc" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{554D0BA3-C7EC-4080-BCD7-D3422A8B3D8D}" name="MemWrite" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{69A643AB-7CAD-461D-927A-0FAACED14321}" name="ResultSrc" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{413871B3-354B-40CC-9AC4-04478F0D39FD}" name="Branch" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{351A7E4D-1729-4921-B433-7A5D7F03448D}" name="ALUOp" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D7463A58-C3CA-4F6C-8A47-A36A875CCCA8}" name="op" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0020EC18-F5DC-4D72-A1F5-E653E54B0736}" name="Instruct." dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{3477EF9C-022A-43B0-85EF-0FA6BA6E3B65}" name="RegWrite" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{DA634149-6F69-4E9E-93B6-4CB737EBE3E2}" name="ImmSrc" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{9EBFEFE6-D2E4-4FD8-8552-3636AC7F8CEF}" name="ALUSrc" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{554D0BA3-C7EC-4080-BCD7-D3422A8B3D8D}" name="MemWrite" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{69A643AB-7CAD-461D-927A-0FAACED14321}" name="ResultSrc" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{413871B3-354B-40CC-9AC4-04478F0D39FD}" name="Branch" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{351A7E4D-1729-4921-B433-7A5D7F03448D}" name="ALUOp" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1301,147 +1288,147 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="43" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="11.5703125" style="5" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="5"/>
-    <col min="7" max="7" width="12.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="5" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="5"/>
+    <col min="4" max="4" width="11.5703125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="4"/>
+    <col min="7" max="7" width="12.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="10">
-        <v>51</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="14" t="s">
+      <c r="F2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="10">
-        <v>51</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="14" t="s">
+      <c r="F3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="10">
-        <v>51</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="14" t="s">
+      <c r="F4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>40</v>
       </c>
       <c r="K4" t="s">
@@ -1449,162 +1436,162 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="10">
-        <v>51</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="F5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="10">
-        <v>51</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="14" t="s">
+      <c r="F6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="10">
-        <v>51</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="14" t="s">
+      <c r="F7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="10">
-        <v>51</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="14" t="s">
+      <c r="F8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="10">
-        <v>51</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="14" t="s">
+      <c r="F9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>40</v>
       </c>
       <c r="K9" t="s">
@@ -1612,98 +1599,98 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="15">
-        <v>19</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="14">
         <v>1</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="18">
+      <c r="E10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="15">
         <v>1</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="15">
         <v>0</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="18">
+      <c r="H10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="15">
         <v>0</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="20">
-        <v>3</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="23" t="s">
+      <c r="D11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="24" t="s">
+      <c r="I11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="20">
-        <v>19</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="24" t="s">
+      <c r="D12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>40</v>
       </c>
       <c r="K12" t="s">
@@ -1711,226 +1698,226 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="20">
-        <v>19</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="14">
         <v>1</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="24" t="s">
+      <c r="E13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="20">
-        <v>103</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="23" t="s">
+      <c r="D14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="24" t="s">
+      <c r="I14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="20">
-        <v>19</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="24" t="s">
+      <c r="D15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="20">
-        <v>19</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="24" t="s">
+      <c r="E16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="20">
-        <v>19</v>
-      </c>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="18">
         <v>1</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="24" t="s">
+      <c r="E17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="20">
-        <v>19</v>
-      </c>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="24" t="s">
+      <c r="D18" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="25">
-        <v>99</v>
-      </c>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="28" t="s">
+      <c r="D19" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="29" t="s">
+      <c r="F19" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="24" t="s">
         <v>40</v>
       </c>
       <c r="K19" t="s">
@@ -1938,162 +1925,162 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="25">
-        <v>99</v>
-      </c>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="28" t="s">
+      <c r="D20" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="29" t="s">
+      <c r="F20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="25">
-        <v>99</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="28" t="s">
+      <c r="D21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="32" t="s">
+      <c r="F21" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="33">
-        <v>35</v>
-      </c>
-      <c r="C22" s="34" t="s">
+      <c r="B22" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="36" t="s">
+      <c r="D22" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="36" t="s">
+      <c r="F22" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="37" t="s">
+      <c r="I22" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="38">
-        <v>111</v>
-      </c>
-      <c r="C23" s="39" t="s">
+      <c r="B23" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="41" t="s">
+      <c r="D23" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="41" t="s">
+      <c r="F23" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="42" t="s">
+      <c r="I23" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="10">
-        <v>55</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="13" t="s">
+      <c r="G24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="14" t="s">
+      <c r="I24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2101,7 +2088,7 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D2:G2 F3 D3:E3 G3 I2:J2 I3:J3 I19:J19 H22:J22 D22:F22 G19 I12:J12 I11:J11 I10:J10 G10 E11 J7 E4 E5:E7 F4:F7 F13:F18 F8:F9 F12 F10:F11 G11 E20:E21 D10:E10 E12:E18 G12 D12 D19:E19 D4 D23:J23 F19 D13:D18 H12 G13:J18 D11 H10 D20:D21 F20:J21 H11 D8:E9 G8:J9 G4:J6 D5:D7 G7:I7 H19 G22 H2:H3 D24:J24" numberStoredAsText="1"/>
+    <ignoredError sqref="D2:G2 F3 D3:E3 G3 I2:J2 I3:J3 I19:J19 H22:J22 D22:F22 G19 I12:J12 I11:J11 I10:J10 G10 E11 J7 E4 E5:E7 F4:F7 F13:F18 F8:F9 F12 F10:F11 G11 E20:E21 D10:E10 E12:E18 G12 D12 D19:E19 D4 D23:J23 F19 D13:D18 H12 G13:J18 D11 H10 D20:D21 F20:J21 H11 D8:E9 G8:J9 G4:J6 D5:D7 G7:I7 H19 G22 H2:H3 D24:J24 B2:B24" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/23InstructiosRISC32I.xlsx
+++ b/23InstructiosRISC32I.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GHOST\OneDrive\Escritorio\Th25-J.B_F.C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F36092-4D89-44D9-A986-2283E1732FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD90CCA3-4CEA-4209-A23D-9244C97E4895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6428B508-3E23-4047-A819-2BA6D5444C44}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$A$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$A$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="66">
   <si>
     <t>op</t>
   </si>
@@ -161,12 +161,6 @@
     <t>XX</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Hay que agregar un desplazamiento en la alu y resolver decoder</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -179,43 +173,70 @@
     <t>B</t>
   </si>
   <si>
-    <t>Hay que agregar operación = y resolver decoder</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Hay que agregar shift circuit , pos ALU</t>
-  </si>
-  <si>
-    <t>Agregar XOR a la ALU</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>110011</t>
-  </si>
-  <si>
-    <t>010011</t>
-  </si>
-  <si>
-    <t>000011</t>
-  </si>
-  <si>
-    <t>100111</t>
-  </si>
-  <si>
-    <t>100011</t>
-  </si>
-  <si>
-    <t>101111</t>
-  </si>
-  <si>
-    <t>000111</t>
+    <t>funct3</t>
+  </si>
+  <si>
+    <t>funct7_5</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>blt</t>
+  </si>
+  <si>
+    <t>1100011</t>
+  </si>
+  <si>
+    <t>0110011</t>
+  </si>
+  <si>
+    <t>0010011</t>
+  </si>
+  <si>
+    <t>0000011</t>
+  </si>
+  <si>
+    <t>1100111</t>
+  </si>
+  <si>
+    <t>0100011</t>
+  </si>
+  <si>
+    <t>1101111</t>
+  </si>
+  <si>
+    <t>0110111</t>
   </si>
 </sst>
 </file>
@@ -284,6 +305,7 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -650,9 +672,6 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -687,17 +706,77 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -713,23 +792,6 @@
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -951,17 +1013,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F6D51CA-DF14-404F-8A58-1F0198635215}" name="Tabla2" displayName="Tabla2" ref="B1:J24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D7463A58-C3CA-4F6C-8A47-A36A875CCCA8}" name="op" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F6D51CA-DF14-404F-8A58-1F0198635215}" name="Tabla2" displayName="Tabla2" ref="B1:L25" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{D7463A58-C3CA-4F6C-8A47-A36A875CCCA8}" name="op" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{E1B20C18-0F27-446C-933D-81F1E86DB508}" name="funct3" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{A098A4CE-AE1F-4B95-8A7F-E598AFE8ED77}" name="funct7_5" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{0020EC18-F5DC-4D72-A1F5-E653E54B0736}" name="Instruct." dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{3477EF9C-022A-43B0-85EF-0FA6BA6E3B65}" name="RegWrite" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{DA634149-6F69-4E9E-93B6-4CB737EBE3E2}" name="ImmSrc" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{9EBFEFE6-D2E4-4FD8-8552-3636AC7F8CEF}" name="ALUSrc" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{554D0BA3-C7EC-4080-BCD7-D3422A8B3D8D}" name="MemWrite" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{69A643AB-7CAD-461D-927A-0FAACED14321}" name="ResultSrc" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{413871B3-354B-40CC-9AC4-04478F0D39FD}" name="Branch" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{351A7E4D-1729-4921-B433-7A5D7F03448D}" name="ALUOp" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3477EF9C-022A-43B0-85EF-0FA6BA6E3B65}" name="RegWrite" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{DA634149-6F69-4E9E-93B6-4CB737EBE3E2}" name="ImmSrc" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{9EBFEFE6-D2E4-4FD8-8552-3636AC7F8CEF}" name="ALUSrc" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{554D0BA3-C7EC-4080-BCD7-D3422A8B3D8D}" name="MemWrite" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{69A643AB-7CAD-461D-927A-0FAACED14321}" name="ResultSrc" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{413871B3-354B-40CC-9AC4-04478F0D39FD}" name="Branch" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{351A7E4D-1729-4921-B433-7A5D7F03448D}" name="ALUOp" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1284,18 +1348,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B9BDEC-3A90-49D4-8C92-EDF500EE6715}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="9.28515625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="4" customWidth="1"/>
     <col min="5" max="6" width="11.42578125" style="4"/>
     <col min="7" max="7" width="12.5703125" style="4" customWidth="1"/>
@@ -1303,784 +1367,952 @@
     <col min="9" max="10" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D7" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="H7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="11" t="s">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="H8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="11" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="H9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" t="s">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="43" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="14">
+      <c r="F10" s="14">
         <v>1</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="G10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="15">
         <v>1</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="I10" s="15">
         <v>0</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="J10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="19" t="s">
+      <c r="D15" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="H23" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="K23" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="20" t="s">
+      <c r="B24" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="14">
-        <v>1</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="18">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="45" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="D25" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="12" t="s">
+      <c r="K25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2088,7 +2320,7 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D2:G2 F3 D3:E3 G3 I2:J2 I3:J3 I19:J19 H22:J22 D22:F22 G19 I12:J12 I11:J11 I10:J10 G10 E11 J7 E4 E5:E7 F4:F7 F13:F18 F8:F9 F12 F10:F11 G11 E20:E21 D10:E10 E12:E18 G12 D12 D19:E19 D4 D23:J23 F19 D13:D18 H12 G13:J18 D11 H10 D20:D21 F20:J21 H11 D8:E9 G8:J9 G4:J6 D5:D7 G7:I7 H19 G22 H2:H3 D24:J24 B2:B24" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:I2 H3:I3 J2:L3 H4:K18 F3:G18 F19:K20 F22:L25 L4:L20 B2:D5 B7:D25 B6 C6:D6 F21:L21" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/23InstructiosRISC32I.xlsx
+++ b/23InstructiosRISC32I.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GHOST\OneDrive\Escritorio\Th25-J.B_F.C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Th25-J.B_F.C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD90CCA3-4CEA-4209-A23D-9244C97E4895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD966AD4-5957-40FE-B4F9-4F1D8D2461CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6428B508-3E23-4047-A819-2BA6D5444C44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6428B508-3E23-4047-A819-2BA6D5444C44}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="68">
   <si>
     <t>op</t>
   </si>
@@ -237,13 +235,19 @@
   </si>
   <si>
     <t>0110111</t>
+  </si>
+  <si>
+    <t>51, 19, 3, 103, 99, 35, 111, 55</t>
+  </si>
+  <si>
+    <t>#case:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,14 +273,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -391,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -590,11 +586,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -609,8 +629,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -703,17 +722,23 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,11 +747,7 @@
   <dxfs count="16">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -738,7 +759,143 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -779,7 +936,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -791,143 +952,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1015,17 +1040,17 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F6D51CA-DF14-404F-8A58-1F0198635215}" name="Tabla2" displayName="Tabla2" ref="B1:L25" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D7463A58-C3CA-4F6C-8A47-A36A875CCCA8}" name="op" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{E1B20C18-0F27-446C-933D-81F1E86DB508}" name="funct3" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{A098A4CE-AE1F-4B95-8A7F-E598AFE8ED77}" name="funct7_5" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{0020EC18-F5DC-4D72-A1F5-E653E54B0736}" name="Instruct." dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{3477EF9C-022A-43B0-85EF-0FA6BA6E3B65}" name="RegWrite" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{DA634149-6F69-4E9E-93B6-4CB737EBE3E2}" name="ImmSrc" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{9EBFEFE6-D2E4-4FD8-8552-3636AC7F8CEF}" name="ALUSrc" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{554D0BA3-C7EC-4080-BCD7-D3422A8B3D8D}" name="MemWrite" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{69A643AB-7CAD-461D-927A-0FAACED14321}" name="ResultSrc" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{413871B3-354B-40CC-9AC4-04478F0D39FD}" name="Branch" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{351A7E4D-1729-4921-B433-7A5D7F03448D}" name="ALUOp" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{D7463A58-C3CA-4F6C-8A47-A36A875CCCA8}" name="op" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{E1B20C18-0F27-446C-933D-81F1E86DB508}" name="funct3" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{A098A4CE-AE1F-4B95-8A7F-E598AFE8ED77}" name="funct7_5" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{0020EC18-F5DC-4D72-A1F5-E653E54B0736}" name="Instruct." dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{3477EF9C-022A-43B0-85EF-0FA6BA6E3B65}" name="RegWrite" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{DA634149-6F69-4E9E-93B6-4CB737EBE3E2}" name="ImmSrc" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{9EBFEFE6-D2E4-4FD8-8552-3636AC7F8CEF}" name="ALUSrc" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{554D0BA3-C7EC-4080-BCD7-D3422A8B3D8D}" name="MemWrite" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{69A643AB-7CAD-461D-927A-0FAACED14321}" name="ResultSrc" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{413871B3-354B-40CC-9AC4-04478F0D39FD}" name="Branch" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{351A7E4D-1729-4921-B433-7A5D7F03448D}" name="ALUOp" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1348,36 +1373,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B9BDEC-3A90-49D4-8C92-EDF500EE6715}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="4"/>
-    <col min="7" max="7" width="12.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="4" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="7.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="41" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="11.375" style="4"/>
+    <col min="7" max="7" width="12.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="11.375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1405,925 +1430,1151 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="12" t="s">
+      <c r="H2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="N2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="12" t="s">
+      <c r="H3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="N3" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="12" t="s">
+      <c r="H4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="N4" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="12" t="s">
+      <c r="H5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="N5" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="12" t="s">
+      <c r="H6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="N6" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="12" t="s">
+      <c r="H7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="N7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="12" t="s">
+      <c r="H8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="N8" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="12" t="s">
+      <c r="H9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="N9" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>1</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="G10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="14">
         <v>1</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <v>0</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="15">
+      <c r="J10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="14">
         <v>0</v>
       </c>
-      <c r="L10" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="L10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="19" t="s">
+      <c r="F11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="K11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="20" t="s">
+      <c r="F12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="N12" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>1</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="20" t="s">
+      <c r="G13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="N13" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="19" t="s">
+      <c r="F14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="20" t="s">
+      <c r="K14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="N14" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="20" t="s">
+      <c r="F15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="N15" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>1</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="20" t="s">
+      <c r="G16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="N16" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <v>1</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" s="20" t="s">
+      <c r="G17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="N17" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="20" t="s">
+      <c r="F18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="N18" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="23" t="s">
+      <c r="F19" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="24" t="s">
+      <c r="H19" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="N19" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="23" t="s">
+      <c r="F20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="24" t="s">
+      <c r="H20" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="43" t="s">
+      <c r="N20" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="O20">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="23" t="s">
+      <c r="F21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="24" t="s">
+      <c r="H21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="N21" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="O21">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="23" t="s">
+      <c r="F22" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="27" t="s">
+      <c r="H22" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="N22" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="O22">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="28" t="s">
+      <c r="D23" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="30" t="s">
+      <c r="F23" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="30" t="s">
+      <c r="H23" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="L23" s="45" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="K23" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="31" t="s">
+      <c r="D24" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="33" t="s">
+      <c r="F24" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="33" t="s">
+      <c r="H24" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="34" t="s">
+      <c r="K24" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="N24" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="O24">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A25" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="11" t="s">
+      <c r="F25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="11" t="s">
+      <c r="I25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="12" t="s">
+      <c r="K25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="N25" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="C30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="14:14">
+      <c r="N37" s="45"/>
+    </row>
+    <row r="38" spans="14:14">
+      <c r="N38" s="45"/>
+    </row>
+    <row r="39" spans="14:14">
+      <c r="N39" s="45"/>
+    </row>
+    <row r="40" spans="14:14">
+      <c r="N40" s="45"/>
+    </row>
+    <row r="41" spans="14:14">
+      <c r="N41" s="45"/>
+    </row>
+    <row r="42" spans="14:14">
+      <c r="N42" s="45"/>
+    </row>
+    <row r="43" spans="14:14">
+      <c r="N43" s="45"/>
+    </row>
+    <row r="44" spans="14:14">
+      <c r="N44" s="45"/>
+    </row>
+    <row r="45" spans="14:14">
+      <c r="N45" s="45"/>
+    </row>
+    <row r="46" spans="14:14">
+      <c r="N46" s="45"/>
+    </row>
+    <row r="47" spans="14:14">
+      <c r="N47" s="45"/>
+    </row>
+    <row r="48" spans="14:14">
+      <c r="N48" s="45"/>
+    </row>
+    <row r="49" spans="14:14">
+      <c r="N49" s="45"/>
+    </row>
+    <row r="50" spans="14:14">
+      <c r="N50" s="45"/>
+    </row>
+    <row r="51" spans="14:14">
+      <c r="N51" s="45"/>
+    </row>
+    <row r="52" spans="14:14">
+      <c r="N52" s="45"/>
+    </row>
+    <row r="53" spans="14:14">
+      <c r="N53" s="45"/>
+    </row>
+    <row r="54" spans="14:14">
+      <c r="N54" s="45"/>
+    </row>
+    <row r="55" spans="14:14">
+      <c r="N55" s="45"/>
+    </row>
+    <row r="56" spans="14:14">
+      <c r="N56" s="45"/>
+    </row>
+    <row r="57" spans="14:14">
+      <c r="N57" s="45"/>
+    </row>
+    <row r="58" spans="14:14">
+      <c r="N58" s="45"/>
+    </row>
+    <row r="59" spans="14:14">
+      <c r="N59" s="45"/>
+    </row>
+    <row r="60" spans="14:14" ht="15.75" thickBot="1">
+      <c r="N60" s="46"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F2:I2 H3:I3 J2:L3 H4:K18 F3:G18 F19:K20 F22:L25 L4:L20 B2:D5 B7:D25 B6 C6:D6 F21:L21" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:I2 H3:I3 J2:L3 H4:K18 F3:G18 F19:K20 F22:L25 L4:L20 B2:D5 B7:D19 B6 C6:D6 F21:L21 B21:D25 C20:D20" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/23InstructiosRISC32I.xlsx
+++ b/23InstructiosRISC32I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Th25-J.B_F.C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD966AD4-5957-40FE-B4F9-4F1D8D2461CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B803F405-4A37-4957-8102-C684BAEEA88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6428B508-3E23-4047-A819-2BA6D5444C44}"/>
   </bookViews>
@@ -746,22 +746,6 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -955,6 +939,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -1040,17 +1040,17 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F6D51CA-DF14-404F-8A58-1F0198635215}" name="Tabla2" displayName="Tabla2" ref="B1:L25" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D7463A58-C3CA-4F6C-8A47-A36A875CCCA8}" name="op" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{E1B20C18-0F27-446C-933D-81F1E86DB508}" name="funct3" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{A098A4CE-AE1F-4B95-8A7F-E598AFE8ED77}" name="funct7_5" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{0020EC18-F5DC-4D72-A1F5-E653E54B0736}" name="Instruct." dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{3477EF9C-022A-43B0-85EF-0FA6BA6E3B65}" name="RegWrite" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{DA634149-6F69-4E9E-93B6-4CB737EBE3E2}" name="ImmSrc" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{9EBFEFE6-D2E4-4FD8-8552-3636AC7F8CEF}" name="ALUSrc" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{554D0BA3-C7EC-4080-BCD7-D3422A8B3D8D}" name="MemWrite" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{69A643AB-7CAD-461D-927A-0FAACED14321}" name="ResultSrc" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{413871B3-354B-40CC-9AC4-04478F0D39FD}" name="Branch" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{351A7E4D-1729-4921-B433-7A5D7F03448D}" name="ALUOp" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D7463A58-C3CA-4F6C-8A47-A36A875CCCA8}" name="op" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{E1B20C18-0F27-446C-933D-81F1E86DB508}" name="funct3" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{A098A4CE-AE1F-4B95-8A7F-E598AFE8ED77}" name="funct7_5" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0020EC18-F5DC-4D72-A1F5-E653E54B0736}" name="Instruct." dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3477EF9C-022A-43B0-85EF-0FA6BA6E3B65}" name="RegWrite" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{DA634149-6F69-4E9E-93B6-4CB737EBE3E2}" name="ImmSrc" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{9EBFEFE6-D2E4-4FD8-8552-3636AC7F8CEF}" name="ALUSrc" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{554D0BA3-C7EC-4080-BCD7-D3422A8B3D8D}" name="MemWrite" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{69A643AB-7CAD-461D-927A-0FAACED14321}" name="ResultSrc" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{413871B3-354B-40CC-9AC4-04478F0D39FD}" name="Branch" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{351A7E4D-1729-4921-B433-7A5D7F03448D}" name="ALUOp" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1377,7 +1377,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
